--- a/15-10m/cutting.xlsx
+++ b/15-10m/cutting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\anntenas\15-10m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A8377-CD47-4F78-BBF3-C01F70252EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CF467D-935E-44D7-B2B8-A23AF5C017A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63585" yWindow="10035" windowWidth="23985" windowHeight="20325" activeTab="1" xr2:uid="{B1BDDFFB-FC3D-443E-82D3-8AC9E0A60EF2}"/>
+    <workbookView xWindow="60165" yWindow="-13545" windowWidth="24510" windowHeight="23295" activeTab="1" xr2:uid="{B1BDDFFB-FC3D-443E-82D3-8AC9E0A60EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Detail1" sheetId="2" r:id="rId1"/>
@@ -20,16 +20,24 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="AA">OFFSET([1]Variables!$B$34,0,1)</definedName>
     <definedName name="AB">OFFSET([1]Variables!$B$35,0,1)</definedName>
     <definedName name="AC">OFFSET([1]Variables!$B$36,0,1)</definedName>
     <definedName name="AF">OFFSET([1]Variables!$B$39,0,1)</definedName>
     <definedName name="AG">OFFSET([1]Variables!$B$40,0,1)</definedName>
     <definedName name="AH">OFFSET([1]Variables!$B$41,0,1)</definedName>
     <definedName name="AI">OFFSET([1]Variables!$B$42,0,1)</definedName>
+    <definedName name="D">OFFSET([1]Variables!$B$14,0,1)</definedName>
+    <definedName name="E">OFFSET([1]Variables!$B$15,0,1)</definedName>
+    <definedName name="G">OFFSET([1]Variables!$B$16,0,1)</definedName>
+    <definedName name="I">OFFSET([1]Variables!$B$18,0,1)</definedName>
+    <definedName name="J">OFFSET([1]Variables!$B$19,0,1)</definedName>
+    <definedName name="K">OFFSET([1]Variables!$B$20,0,1)</definedName>
+    <definedName name="L">OFFSET([1]Variables!$B$21,0,1)</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999999995E-8"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>15m</t>
   </si>
@@ -148,6 +156,51 @@
   </si>
   <si>
     <t>2 metri</t>
+  </si>
+  <si>
+    <t>Platums</t>
+  </si>
+  <si>
+    <t>1/2 platums</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Abs</t>
+  </si>
+  <si>
+    <t>15mRE</t>
+  </si>
+  <si>
+    <t>10mRE</t>
+  </si>
+  <si>
+    <t>10mDE</t>
+  </si>
+  <si>
+    <t>15mDE</t>
+  </si>
+  <si>
+    <t>10mD1</t>
+  </si>
+  <si>
+    <t>15mD1</t>
+  </si>
+  <si>
+    <t>10mD2</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Act</t>
   </si>
 </sst>
 </file>
@@ -158,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +278,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,6 +311,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -262,7 +433,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,29 +465,68 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -326,7 +536,198 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{4319D230-D9BA-4567-8C00-54CF5C39575F}"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{8D308F1B-371D-40A6-9001-03BBE7D844BD}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -374,7 +775,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>525453</xdr:colOff>
+      <xdr:colOff>53345</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
@@ -417,8 +818,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434071</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>574876</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>99393</xdr:rowOff>
     </xdr:to>
@@ -487,6 +888,46 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
+        <row r="14">
+          <cell r="B14" t="str">
+            <v xml:space="preserve">D : </v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v xml:space="preserve">E : </v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v xml:space="preserve">G : </v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v xml:space="preserve">I : </v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v xml:space="preserve">J : </v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v xml:space="preserve">K : </v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v xml:space="preserve">L : </v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v xml:space="preserve">AA : </v>
+          </cell>
+        </row>
         <row r="35">
           <cell r="B35" t="str">
             <v xml:space="preserve">AB : </v>
@@ -802,7 +1243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0275113D-2152-48C2-A9AB-1F4CE2744EAF}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0275113D-2152-48C2-A9AB-1F4CE2744EAF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A38:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -961,14 +1402,33 @@
   <autoFilter ref="A2:G23" xr:uid="{77F2C46A-CE1C-45EC-B6B5-FE010E008D47}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9F49DE65-D3B2-48D4-BA87-1ED700689FFE}" name="Band"/>
-    <tableColumn id="2" xr3:uid="{A9ADC88D-464D-49A4-8783-59749835B812}" name="Poz" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{744C7574-76B4-4246-BC6B-524F84CBFDF5}" name="Tips" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CA1A7208-6173-4935-9C9B-72EB220E7B0B}" name="D" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9757F9A6-FAB9-4E38-A87C-44CB9CB3DA39}" name="Garums GRIEZT" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9CC5E97F-03F5-4CF8-9295-EEF744B2CDD8}" name="Skaits" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{01DA002C-FCD0-4AC6-8F9B-4CCBF3A77B71}" name="Pozicija" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A9ADC88D-464D-49A4-8783-59749835B812}" name="Poz" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{744C7574-76B4-4246-BC6B-524F84CBFDF5}" name="Tips" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{CA1A7208-6173-4935-9C9B-72EB220E7B0B}" name="D" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{9757F9A6-FAB9-4E38-A87C-44CB9CB3DA39}" name="Garums GRIEZT" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{9CC5E97F-03F5-4CF8-9295-EEF744B2CDD8}" name="Skaits" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{01DA002C-FCD0-4AC6-8F9B-4CCBF3A77B71}" name="Pozicija" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4AF8D688-A65D-42EE-BC53-1EC1AB986234}" name="Table3" displayName="Table3" ref="A125:H132" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A125:H132" xr:uid="{4AF8D688-A65D-42EE-BC53-1EC1AB986234}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0B1FD048-B5EA-4DDD-B4F8-F0AB554072BE}" name="Abs" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{87D91116-7A0D-49E4-8777-67C6E5449E25}" name="Delta" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CEEF63A1-F7D8-4EFC-A901-F44ABFA41591}" name="Platums" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3B83CC6F-4BB1-42AD-B3B0-26E7844C49C6}" name="1/2 platums" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{786DB21A-CA54-436E-B968-E03C9EA1C42E}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{69DBF315-5B5E-44E3-8A12-1C6E5864BA30}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C3EDE077-6C2A-4AA0-A616-9C663D8A11A0}" name="Exp" dataDxfId="1">
+      <calculatedColumnFormula>SQRT(Table3[[#This Row],[Column2]]^2+Table3[[#This Row],[Delta]]^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F8394BF9-15BC-4963-B24C-78B33B8F7278}" name="Act" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1284,7 +1744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1361,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0119E709-8244-4438-900F-D0E9DDF461C6}">
-  <dimension ref="A2:I94"/>
+  <dimension ref="A2:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1832,7 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
   </cols>
@@ -1419,10 +1879,10 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.05</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1445,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1468,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1490,10 +1950,10 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>2.8719999999999999</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1516,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1539,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1560,10 +2020,10 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="16">
         <v>4.6379999999999999</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1586,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1609,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="57.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1630,10 +2090,10 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="16">
         <v>0.67400000000000004</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1656,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1679,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1701,10 +2161,10 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="16">
         <v>2.5619999999999998</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1727,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1750,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1771,10 +2231,10 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="16">
         <v>4.2729999999999997</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1797,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1820,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1841,10 +2301,10 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="16">
         <v>5.95</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1867,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1890,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
@@ -1921,7 +2381,7 @@
       <c r="A39" s="11">
         <v>25</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39">
         <v>4</v>
       </c>
       <c r="C39"/>
@@ -1940,7 +2400,7 @@
       <c r="A40" s="12">
         <v>0.98499999999999999</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40">
         <v>2</v>
       </c>
       <c r="C40"/>
@@ -1959,7 +2419,7 @@
       <c r="A41" s="12">
         <v>2</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41"/>
@@ -1978,7 +2438,7 @@
       <c r="A42" s="12">
         <v>1.6</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42"/>
@@ -1997,7 +2457,7 @@
       <c r="A43" s="11">
         <v>20</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43">
         <v>11</v>
       </c>
       <c r="C43"/>
@@ -2016,7 +2476,7 @@
       <c r="A44" s="12">
         <v>1.4500000000000002</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44">
         <v>4</v>
       </c>
       <c r="C44"/>
@@ -2035,7 +2495,7 @@
       <c r="A45" s="12">
         <v>1.4</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45">
         <v>3</v>
       </c>
       <c r="C45"/>
@@ -2044,7 +2504,7 @@
       <c r="A46" s="12">
         <v>0.68499999999999994</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46">
         <v>2</v>
       </c>
       <c r="C46"/>
@@ -2053,7 +2513,7 @@
       <c r="A47" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47">
         <v>2</v>
       </c>
       <c r="C47"/>
@@ -2062,7 +2522,7 @@
       <c r="A48" s="11">
         <v>16</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48">
         <v>8</v>
       </c>
       <c r="C48"/>
@@ -2074,7 +2534,7 @@
       <c r="A49" s="12">
         <v>0.7</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49">
         <v>4</v>
       </c>
       <c r="C49"/>
@@ -2083,7 +2543,7 @@
       <c r="A50" s="12">
         <v>0.6</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50">
         <v>4</v>
       </c>
       <c r="C50"/>
@@ -2092,7 +2552,7 @@
       <c r="A51" s="11">
         <v>12</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51">
         <v>14</v>
       </c>
       <c r="C51"/>
@@ -2101,7 +2561,7 @@
       <c r="A52" s="12">
         <v>1.2140000000000002</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52">
         <v>2</v>
       </c>
       <c r="C52"/>
@@ -2110,7 +2570,7 @@
       <c r="A53" s="12">
         <v>1.4260000000000002</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53">
         <v>2</v>
       </c>
       <c r="C53"/>
@@ -2119,7 +2579,7 @@
       <c r="A54" s="12">
         <v>1.5390000000000001</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54">
         <v>2</v>
       </c>
       <c r="C54"/>
@@ -2128,7 +2588,7 @@
       <c r="A55" s="12">
         <v>1.419</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55">
         <v>2</v>
       </c>
     </row>
@@ -2136,7 +2596,7 @@
       <c r="A56" s="12">
         <v>1.353</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56">
         <v>2</v>
       </c>
     </row>
@@ -2144,7 +2604,7 @@
       <c r="A57" s="12">
         <v>1.4790000000000001</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57">
         <v>2</v>
       </c>
     </row>
@@ -2152,7 +2612,7 @@
       <c r="A58" s="12">
         <v>1.431</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58">
         <v>2</v>
       </c>
     </row>
@@ -2160,7 +2620,7 @@
       <c r="A59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59">
         <v>37</v>
       </c>
     </row>
@@ -2174,12 +2634,340 @@
         <v>32</v>
       </c>
     </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="24">
+        <v>7.3520000000000003</v>
+      </c>
+      <c r="D126" s="25">
+        <v>3.6760000000000002</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="33"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="33"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="22">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="B127" s="27">
+        <v>0.627</v>
+      </c>
+      <c r="C127" s="24">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="D127" s="25">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="34">
+        <f>D126-Table3[[#This Row],[1/2 platums]]</f>
+        <v>0.93700000000000028</v>
+      </c>
+      <c r="G127" s="34">
+        <f>SQRT(Table3[[#This Row],[Column2]]^2+Table3[[#This Row],[Delta]]^2)</f>
+        <v>1.1274298204322966</v>
+      </c>
+      <c r="H127" s="34">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="22">
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="B128" s="27">
+        <v>1.88</v>
+      </c>
+      <c r="C128" s="24">
+        <v>5.2380000000000004</v>
+      </c>
+      <c r="D128" s="25">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="33"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="33"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="22">
+        <v>2.871</v>
+      </c>
+      <c r="B129" s="27">
+        <v>0.31400000000000006</v>
+      </c>
+      <c r="C129" s="24">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="D129" s="25">
+        <v>3.464</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="34">
+        <f>Table3[[#This Row],[1/2 platums]]-D128</f>
+        <v>0.84499999999999975</v>
+      </c>
+      <c r="G129" s="34">
+        <f>SQRT(Table3[[#This Row],[Column2]]^2+Table3[[#This Row],[Delta]]^2)</f>
+        <v>0.90145493509104468</v>
+      </c>
+      <c r="H129" s="33">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="22">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="B130" s="27">
+        <v>1.4010000000000002</v>
+      </c>
+      <c r="C130" s="24">
+        <v>5.1580000000000004</v>
+      </c>
+      <c r="D130" s="25">
+        <v>2.5790000000000002</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="33"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="33"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="22">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="B131" s="27">
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="C131" s="24">
+        <v>6.2619999999999996</v>
+      </c>
+      <c r="D131" s="25">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="34">
+        <f>Table3[[#This Row],[1/2 platums]]-D130</f>
+        <v>0.5519999999999996</v>
+      </c>
+      <c r="G131" s="34">
+        <f>SQRT(Table3[[#This Row],[Column2]]^2+Table3[[#This Row],[Delta]]^2)</f>
+        <v>0.66453291867295761</v>
+      </c>
+      <c r="H131" s="33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="28">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="B132" s="29">
+        <v>1.3119999999999994</v>
+      </c>
+      <c r="C132" s="30">
+        <v>4.9059999999999997</v>
+      </c>
+      <c r="D132" s="31">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="33"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="17"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="17"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="17"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="17"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="17"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="17"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="17"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="17"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="17"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="17"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="17"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="17"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="17"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="17"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="17"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="17"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="17"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="17"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="17"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="17"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="17"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="17"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="17"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="17"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="17"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="17"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="17"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="17"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="17"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="17"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="17"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="17"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="17"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="17"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="17"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="17"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="17"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="17"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="17"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="17"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A126:A166">
+    <sortCondition ref="A126:A166"/>
+  </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>